--- a/DATA_OUT/eda_information.xlsx
+++ b/DATA_OUT/eda_information.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="128">
   <si>
     <t>Название столбца</t>
   </si>
@@ -395,19 +395,7 @@
     <t>Корреляция Спирмена</t>
   </si>
   <si>
-    <t>Вывод по шкале Чеддока (Спирмен)</t>
-  </si>
-  <si>
     <t>Корреляция Кендала</t>
-  </si>
-  <si>
-    <t>Вывод по шкале Чеддока (Кендал)</t>
-  </si>
-  <si>
-    <t>Средняя корреляция</t>
-  </si>
-  <si>
-    <t>Итоговый вывод по шкале Чеддока</t>
   </si>
   <si>
     <t>Умеренная связь</t>
@@ -2736,13 +2724,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -2761,20 +2749,8 @@
       <c r="F1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2785,28 +2761,16 @@
         <v>42.87</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>55.99</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
         <v>45.22</v>
       </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2">
-        <v>48.03</v>
-      </c>
-      <c r="J2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2817,28 +2781,16 @@
         <v>57.86</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>83.01000000000001</v>
       </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3">
+      <c r="F3">
         <v>63.26</v>
       </c>
-      <c r="H3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3">
-        <v>68.04000000000001</v>
-      </c>
-      <c r="J3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2849,28 +2801,16 @@
         <v>43.08</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>58.24</v>
       </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
         <v>39.91</v>
       </c>
-      <c r="H4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4">
-        <v>47.08</v>
-      </c>
-      <c r="J4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2881,28 +2821,16 @@
         <v>58.46</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>81.68000000000001</v>
       </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
         <v>61.88</v>
       </c>
-      <c r="H5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5">
-        <v>67.34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2913,28 +2841,16 @@
         <v>43.89</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>57.74</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6">
+      <c r="F6">
         <v>39.72</v>
       </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6">
-        <v>47.11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2945,28 +2861,16 @@
         <v>44.07</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>56.71</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
         <v>39.13</v>
       </c>
-      <c r="H7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7">
-        <v>46.64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2977,28 +2881,16 @@
         <v>32.59</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>50.56</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
         <v>34.16</v>
       </c>
-      <c r="H8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8">
-        <v>39.1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3009,28 +2901,16 @@
         <v>38.79</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>57.33</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9">
+      <c r="F9">
         <v>40.26</v>
       </c>
-      <c r="H9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9">
-        <v>45.46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3041,28 +2921,16 @@
         <v>58.92</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E10">
         <v>79.18000000000001</v>
       </c>
-      <c r="F10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10">
+      <c r="F10">
         <v>61.85</v>
       </c>
-      <c r="H10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="J10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3073,28 +2941,16 @@
         <v>52.94</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E11">
         <v>73.18000000000001</v>
       </c>
-      <c r="F11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11">
+      <c r="F11">
         <v>54.46</v>
       </c>
-      <c r="H11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11">
-        <v>60.19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3105,28 +2961,16 @@
         <v>55.31</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>64.37</v>
       </c>
-      <c r="F12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
         <v>48.56</v>
       </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12">
-        <v>56.08</v>
-      </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3137,28 +2981,16 @@
         <v>49.73</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>58.07</v>
       </c>
-      <c r="F13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13">
+      <c r="F13">
         <v>47.03</v>
       </c>
-      <c r="H13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13">
-        <v>51.61</v>
-      </c>
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3169,28 +3001,16 @@
         <v>43.93</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>55.11</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
         <v>44.85</v>
       </c>
-      <c r="H14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14">
-        <v>47.96</v>
-      </c>
-      <c r="J14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3201,28 +3021,16 @@
         <v>50.45</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>59.9</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15">
+      <c r="F15">
         <v>51.87</v>
       </c>
-      <c r="H15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15">
-        <v>54.07</v>
-      </c>
-      <c r="J15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3233,28 +3041,16 @@
         <v>50.13</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <v>55.74</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16">
+      <c r="F16">
         <v>47.52</v>
       </c>
-      <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16">
-        <v>51.13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3265,28 +3061,16 @@
         <v>38.7</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>51.66</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17">
+      <c r="F17">
         <v>35.5</v>
       </c>
-      <c r="H17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17">
-        <v>41.95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3297,28 +3081,16 @@
         <v>56.89</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <v>82.41</v>
       </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18">
+      <c r="F18">
         <v>62</v>
       </c>
-      <c r="H18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="J18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3329,28 +3101,16 @@
         <v>39.77</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>52.22</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19">
+      <c r="F19">
         <v>35.96</v>
       </c>
-      <c r="H19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19">
-        <v>42.65</v>
-      </c>
-      <c r="J19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3361,28 +3121,16 @@
         <v>39.03</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E20">
         <v>50.54</v>
       </c>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20">
+      <c r="F20">
         <v>34.87</v>
       </c>
-      <c r="H20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20">
-        <v>41.48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3393,28 +3141,16 @@
         <v>39.27</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>57.55</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21">
+      <c r="F21">
         <v>39.44</v>
       </c>
-      <c r="H21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21">
-        <v>45.42</v>
-      </c>
-      <c r="J21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3425,28 +3161,16 @@
         <v>55.38</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>74.23999999999999</v>
       </c>
-      <c r="F22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22">
+      <c r="F22">
         <v>57.08</v>
       </c>
-      <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22">
-        <v>62.23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3457,28 +3181,16 @@
         <v>63.48</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>82.29000000000001</v>
       </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23">
+      <c r="F23">
         <v>64.56999999999999</v>
       </c>
-      <c r="H23" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23">
-        <v>70.11</v>
-      </c>
-      <c r="J23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -3489,28 +3201,16 @@
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>80.54000000000001</v>
       </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24">
+      <c r="F24">
         <v>62.13</v>
       </c>
-      <c r="H24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24">
-        <v>68.89</v>
-      </c>
-      <c r="J24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3521,28 +3221,16 @@
         <v>54.78</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E25">
         <v>71.36</v>
       </c>
-      <c r="F25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25">
+      <c r="F25">
         <v>53.22</v>
       </c>
-      <c r="H25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25">
-        <v>59.79</v>
-      </c>
-      <c r="J25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3553,28 +3241,16 @@
         <v>59.34</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>70.43000000000001</v>
       </c>
-      <c r="F26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26">
+      <c r="F26">
         <v>55.03</v>
       </c>
-      <c r="H26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26">
-        <v>61.6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -3585,28 +3261,16 @@
         <v>57.16</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>69.11</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27">
+      <c r="F27">
         <v>54.22</v>
       </c>
-      <c r="H27" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27">
-        <v>60.16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3617,28 +3281,16 @@
         <v>39.65</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>56.95</v>
       </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28">
+      <c r="F28">
         <v>41.35</v>
       </c>
-      <c r="H28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28">
-        <v>45.98</v>
-      </c>
-      <c r="J28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -3649,28 +3301,16 @@
         <v>48.63</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>63.31</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29">
+      <c r="F29">
         <v>48.43</v>
       </c>
-      <c r="H29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29">
-        <v>53.45</v>
-      </c>
-      <c r="J29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3681,28 +3321,16 @@
         <v>45.85</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>58.22</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30">
+      <c r="F30">
         <v>43.59</v>
       </c>
-      <c r="H30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30">
-        <v>49.22</v>
-      </c>
-      <c r="J30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -3713,28 +3341,16 @@
         <v>57.36</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E31">
         <v>72.59</v>
       </c>
-      <c r="F31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31">
+      <c r="F31">
         <v>54.06</v>
       </c>
-      <c r="H31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31">
-        <v>61.34</v>
-      </c>
-      <c r="J31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3745,28 +3361,16 @@
         <v>53.51</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E32">
         <v>69.78</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32">
+      <c r="F32">
         <v>51.98</v>
       </c>
-      <c r="H32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32">
-        <v>58.43</v>
-      </c>
-      <c r="J32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -3777,28 +3381,16 @@
         <v>35.94</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E33">
         <v>63.96</v>
       </c>
-      <c r="F33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33">
+      <c r="F33">
         <v>45.79</v>
       </c>
-      <c r="H33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I33">
-        <v>48.57</v>
-      </c>
-      <c r="J33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3809,28 +3401,16 @@
         <v>30.71</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E34">
         <v>68.34999999999999</v>
       </c>
-      <c r="F34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34">
+      <c r="F34">
         <v>51.83</v>
       </c>
-      <c r="H34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I34">
-        <v>50.3</v>
-      </c>
-      <c r="J34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -3841,28 +3421,16 @@
         <v>73.41</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E35">
         <v>85.37</v>
       </c>
-      <c r="F35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35">
+      <c r="F35">
         <v>68.56</v>
       </c>
-      <c r="H35" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35">
-        <v>75.78</v>
-      </c>
-      <c r="J35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3873,28 +3441,16 @@
         <v>48.6</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>77.98999999999999</v>
       </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36">
+      <c r="F36">
         <v>59.61</v>
       </c>
-      <c r="H36" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36">
-        <v>62.07</v>
-      </c>
-      <c r="J36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -3905,28 +3461,16 @@
         <v>53.95</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>49.39</v>
       </c>
-      <c r="F37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37">
+      <c r="F37">
         <v>35.39</v>
       </c>
-      <c r="H37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37">
-        <v>46.24</v>
-      </c>
-      <c r="J37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3937,28 +3481,16 @@
         <v>58.39</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E38">
         <v>70.01000000000001</v>
       </c>
-      <c r="F38" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38">
+      <c r="F38">
         <v>54.41</v>
       </c>
-      <c r="H38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38">
-        <v>60.94</v>
-      </c>
-      <c r="J38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3969,28 +3501,16 @@
         <v>42.71</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>56.47</v>
       </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39">
+      <c r="F39">
         <v>40.92</v>
       </c>
-      <c r="H39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39">
-        <v>46.7</v>
-      </c>
-      <c r="J39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -4001,28 +3521,16 @@
         <v>53.28</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>65.59</v>
       </c>
-      <c r="F40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40">
+      <c r="F40">
         <v>50.35</v>
       </c>
-      <c r="H40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40">
-        <v>56.41</v>
-      </c>
-      <c r="J40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -4033,28 +3541,16 @@
         <v>45.77</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E41">
         <v>58.07</v>
       </c>
-      <c r="F41" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41">
+      <c r="F41">
         <v>43.06</v>
       </c>
-      <c r="H41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41">
-        <v>48.97</v>
-      </c>
-      <c r="J41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -4065,28 +3561,16 @@
         <v>35.74</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E42">
         <v>54.06</v>
       </c>
-      <c r="F42" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42">
+      <c r="F42">
         <v>39.45</v>
       </c>
-      <c r="H42" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42">
-        <v>43.09</v>
-      </c>
-      <c r="J42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -4097,28 +3581,16 @@
         <v>49.51</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E43">
         <v>62.8</v>
       </c>
-      <c r="F43" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43">
+      <c r="F43">
         <v>48.29</v>
       </c>
-      <c r="H43" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43">
-        <v>53.54</v>
-      </c>
-      <c r="J43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -4129,28 +3601,16 @@
         <v>45.52</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E44">
         <v>58.15</v>
       </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44">
+      <c r="F44">
         <v>43.55</v>
       </c>
-      <c r="H44" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44">
-        <v>49.07</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4161,28 +3621,16 @@
         <v>40.71</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>57.75</v>
       </c>
-      <c r="F45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45">
+      <c r="F45">
         <v>42.39</v>
       </c>
-      <c r="H45" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45">
-        <v>46.95</v>
-      </c>
-      <c r="J45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4193,28 +3641,16 @@
         <v>44.24</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E46">
         <v>64.90000000000001</v>
       </c>
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46">
+      <c r="F46">
         <v>49.59</v>
       </c>
-      <c r="H46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I46">
-        <v>52.91</v>
-      </c>
-      <c r="J46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -4225,28 +3661,16 @@
         <v>38.92</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>54.04</v>
       </c>
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47">
+      <c r="F47">
         <v>39.24</v>
       </c>
-      <c r="H47" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47">
-        <v>44.06</v>
-      </c>
-      <c r="J47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -4257,28 +3681,16 @@
         <v>38.69</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E48">
         <v>62.1</v>
       </c>
-      <c r="F48" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48">
+      <c r="F48">
         <v>47.52</v>
       </c>
-      <c r="H48" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48">
-        <v>49.44</v>
-      </c>
-      <c r="J48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -4289,28 +3701,16 @@
         <v>51.62</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E49">
         <v>67.39</v>
       </c>
-      <c r="F49" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49">
+      <c r="F49">
         <v>52.29</v>
       </c>
-      <c r="H49" t="s">
-        <v>130</v>
-      </c>
-      <c r="I49">
-        <v>57.1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -4321,28 +3721,16 @@
         <v>51.78</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E50">
         <v>70.70999999999999</v>
       </c>
-      <c r="F50" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50">
+      <c r="F50">
         <v>54.72</v>
       </c>
-      <c r="H50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I50">
-        <v>59.07</v>
-      </c>
-      <c r="J50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -4353,25 +3741,13 @@
         <v>52.2</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E51">
         <v>53.85</v>
       </c>
-      <c r="F51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51">
+      <c r="F51">
         <v>41.73</v>
-      </c>
-      <c r="H51" t="s">
-        <v>129</v>
-      </c>
-      <c r="I51">
-        <v>49.26</v>
-      </c>
-      <c r="J51" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_OUT/eda_information.xlsx
+++ b/DATA_OUT/eda_information.xlsx
@@ -22,15 +22,14 @@
     <sheet name="Интервалы (Год)" sheetId="13" r:id="rId13"/>
     <sheet name="Интервалы (Месяц)" sheetId="14" r:id="rId14"/>
     <sheet name="Интервалы (День)" sheetId="15" r:id="rId15"/>
-    <sheet name="Интервалы (Час)" sheetId="16" r:id="rId16"/>
-    <sheet name="Корреляции числовых признаков" sheetId="17" r:id="rId17"/>
+    <sheet name="Корреляции числовых признаков" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="146">
   <si>
     <t>Название столбца</t>
   </si>
@@ -443,9 +442,6 @@
     <t>День</t>
   </si>
   <si>
-    <t>Час</t>
-  </si>
-  <si>
     <t>Признак 1</t>
   </si>
   <si>
@@ -20008,35 +20004,6 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20045,22 +20012,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -20074,7 +20041,7 @@
         <v>42.87</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>55.99</v>
@@ -20094,7 +20061,7 @@
         <v>57.86</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>83.01000000000001</v>
@@ -20114,7 +20081,7 @@
         <v>43.08</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <v>58.24</v>
@@ -20134,7 +20101,7 @@
         <v>58.46</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>81.68000000000001</v>
@@ -20154,7 +20121,7 @@
         <v>43.89</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6">
         <v>57.74</v>
@@ -20174,7 +20141,7 @@
         <v>44.07</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>56.71</v>
@@ -20194,7 +20161,7 @@
         <v>32.59</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>50.56</v>
@@ -20214,7 +20181,7 @@
         <v>38.79</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>57.33</v>
@@ -20234,7 +20201,7 @@
         <v>58.92</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>79.18000000000001</v>
@@ -20254,7 +20221,7 @@
         <v>52.94</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>73.18000000000001</v>
@@ -20274,7 +20241,7 @@
         <v>55.31</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12">
         <v>64.37</v>
@@ -20294,7 +20261,7 @@
         <v>49.73</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13">
         <v>58.07</v>
@@ -20314,7 +20281,7 @@
         <v>43.93</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14">
         <v>55.11</v>
@@ -20334,7 +20301,7 @@
         <v>50.45</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15">
         <v>59.9</v>
@@ -20354,7 +20321,7 @@
         <v>50.13</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16">
         <v>55.74</v>
@@ -20374,7 +20341,7 @@
         <v>38.7</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>51.66</v>
@@ -20394,7 +20361,7 @@
         <v>56.89</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18">
         <v>82.41</v>
@@ -20414,7 +20381,7 @@
         <v>39.77</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19">
         <v>52.22</v>
@@ -20434,7 +20401,7 @@
         <v>39.03</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>50.54</v>
@@ -20454,7 +20421,7 @@
         <v>39.27</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21">
         <v>57.55</v>
@@ -20474,7 +20441,7 @@
         <v>55.38</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>74.23999999999999</v>
@@ -20494,7 +20461,7 @@
         <v>63.48</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23">
         <v>82.29000000000001</v>
@@ -20514,7 +20481,7 @@
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24">
         <v>80.54000000000001</v>
@@ -20534,7 +20501,7 @@
         <v>54.78</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25">
         <v>71.36</v>
@@ -20554,7 +20521,7 @@
         <v>59.34</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26">
         <v>70.43000000000001</v>
@@ -20574,7 +20541,7 @@
         <v>57.16</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>69.11</v>
@@ -20594,7 +20561,7 @@
         <v>39.65</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28">
         <v>56.95</v>
@@ -20614,7 +20581,7 @@
         <v>48.63</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29">
         <v>63.31</v>
@@ -20634,7 +20601,7 @@
         <v>45.85</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>58.22</v>
@@ -20654,7 +20621,7 @@
         <v>57.36</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31">
         <v>72.59</v>
@@ -20674,7 +20641,7 @@
         <v>53.51</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>69.78</v>
@@ -20694,7 +20661,7 @@
         <v>35.94</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33">
         <v>63.96</v>
@@ -20714,7 +20681,7 @@
         <v>30.71</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34">
         <v>68.34999999999999</v>
@@ -20734,7 +20701,7 @@
         <v>73.41</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35">
         <v>85.37</v>
@@ -20754,7 +20721,7 @@
         <v>48.6</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36">
         <v>77.98999999999999</v>
@@ -20774,7 +20741,7 @@
         <v>53.95</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37">
         <v>49.39</v>
@@ -20794,7 +20761,7 @@
         <v>58.39</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E38">
         <v>70.01000000000001</v>
@@ -20814,7 +20781,7 @@
         <v>42.71</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39">
         <v>56.47</v>
@@ -20834,7 +20801,7 @@
         <v>53.28</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E40">
         <v>65.59</v>
@@ -20854,7 +20821,7 @@
         <v>45.77</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41">
         <v>58.07</v>
@@ -20874,7 +20841,7 @@
         <v>35.74</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42">
         <v>54.06</v>
@@ -20894,7 +20861,7 @@
         <v>49.51</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43">
         <v>62.8</v>
@@ -20914,7 +20881,7 @@
         <v>45.52</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44">
         <v>58.15</v>
@@ -20934,7 +20901,7 @@
         <v>40.71</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45">
         <v>57.75</v>
@@ -20954,7 +20921,7 @@
         <v>44.24</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46">
         <v>64.90000000000001</v>
@@ -20974,7 +20941,7 @@
         <v>38.92</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47">
         <v>54.04</v>
@@ -20994,7 +20961,7 @@
         <v>38.69</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48">
         <v>62.1</v>
@@ -21014,7 +20981,7 @@
         <v>51.62</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49">
         <v>67.39</v>
@@ -21034,7 +21001,7 @@
         <v>51.78</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50">
         <v>70.70999999999999</v>
@@ -21054,7 +21021,7 @@
         <v>52.2</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51">
         <v>53.85</v>
